--- a/fnb-admin/public/upload/template/import_user.xlsx
+++ b/fnb-admin/public/upload/template/import_user.xlsx
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
-  <si>
-    <t>Chăm Sóc</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+  <si>
+    <t>STT</t>
   </si>
   <si>
     <t>MÃ NHÂN VIÊN</t>
@@ -91,6 +91,10 @@
     <t>KHU VỰC</t>
   </si>
   <si>
+    <t>XÃ/PHƯỜNG - TRONG KHU VỰC
+(NẾU CHỌN TẤT CẢ THÌ ĐỂ TRỐNG)</t>
+  </si>
+  <si>
     <t>TRẠNG THÁI
 1 = Hoạt động</t>
   </si>
@@ -107,7 +111,19 @@
     <t>000000009</t>
   </si>
   <si>
-    <t>Hà Nội</t>
+    <t>Chăm Sóc</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Tân Phước, Bà Điểm, Nhà Bè</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Long An</t>
+  </si>
+  <si>
+    <t>Hưng Điền1, Vĩnh Châu</t>
   </si>
   <si>
     <t>A0499112</t>
@@ -125,7 +141,7 @@
     <t>Kinh Doanh</t>
   </si>
   <si>
-    <t>TPHCM 1</t>
+    <t>Tân Đông Hiệp, Bình Khánh</t>
   </si>
   <si>
     <t>A0499113</t>
@@ -143,6 +159,9 @@
     <t>Chăm Sóc,Kinh Doanh</t>
   </si>
   <si>
+    <t>Tân Khánh, Thái Mỹ, Bảy Hiền, Vĩnh Hội</t>
+  </si>
+  <si>
     <t>A0499114</t>
   </si>
   <si>
@@ -155,7 +174,7 @@
     <t>000000006</t>
   </si>
   <si>
-    <t>Chăm Sóc,Kinh Doanh1</t>
+    <t>Long An</t>
   </si>
 </sst>
 </file>
@@ -798,7 +817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,6 +831,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,13 +1156,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="31.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="58.5714285714286" customWidth="1"/>
@@ -1149,10 +1171,11 @@
     <col min="6" max="6" width="30.7142857142857" customWidth="1"/>
     <col min="7" max="7" width="17.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="21.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="27.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="21.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:9">
+    <row r="1" ht="60" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,97 +1203,93 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" ht="45" customHeight="1" spans="1:10">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5">
         <v>123456</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="5">
+        <v>15</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3">
+    <row r="3" spans="1:10">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5">
-        <v>123456</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="G4" s="5">
         <v>123456</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="5">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" ht="30" spans="1:10">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>25</v>
@@ -1278,10 +1297,10 @@
       <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1291,16 +1310,49 @@
         <v>123456</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5">
+        <v>123456</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="vi@gmail.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="hung@gmail"/>
-    <hyperlink ref="D4" r:id="rId3" display="lien@gmail.com"/>
-    <hyperlink ref="D5" r:id="rId4" display="tam@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId2" display="hung@gmail"/>
+    <hyperlink ref="D5" r:id="rId3" display="lien@gmail.com"/>
+    <hyperlink ref="D6" r:id="rId4" display="tam@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
